--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H2">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I2">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J2">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N2">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O2">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P2">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q2">
-        <v>58.53958739108305</v>
+        <v>68.70232818474699</v>
       </c>
       <c r="R2">
-        <v>58.53958739108305</v>
+        <v>618.320953662723</v>
       </c>
       <c r="S2">
-        <v>0.0003655563923010965</v>
+        <v>0.0002862670823632328</v>
       </c>
       <c r="T2">
-        <v>0.0003655563923010965</v>
+        <v>0.0003096755332454355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H3">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I3">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J3">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N3">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O3">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P3">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q3">
-        <v>190.1555763648484</v>
+        <v>203.5862098565115</v>
       </c>
       <c r="R3">
-        <v>190.1555763648484</v>
+        <v>1832.275888708604</v>
       </c>
       <c r="S3">
-        <v>0.001187445787881621</v>
+        <v>0.0008482977483425585</v>
       </c>
       <c r="T3">
-        <v>0.001187445787881621</v>
+        <v>0.0009176642155298819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H4">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I4">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J4">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N4">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O4">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P4">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q4">
-        <v>188.1727535387046</v>
+        <v>253.4538524231107</v>
       </c>
       <c r="R4">
-        <v>188.1727535387046</v>
+        <v>2281.084671807997</v>
       </c>
       <c r="S4">
-        <v>0.001175063849586515</v>
+        <v>0.001056084950305858</v>
       </c>
       <c r="T4">
-        <v>0.001175063849586515</v>
+        <v>0.00114244246120996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H5">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I5">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J5">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N5">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O5">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P5">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q5">
-        <v>427.1347321949576</v>
+        <v>493.4175682663492</v>
       </c>
       <c r="R5">
-        <v>427.1347321949576</v>
+        <v>4440.758114397143</v>
       </c>
       <c r="S5">
-        <v>0.002667286167983271</v>
+        <v>0.002055959548773029</v>
       </c>
       <c r="T5">
-        <v>0.002667286167983271</v>
+        <v>0.002224078173226619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H6">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I6">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J6">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N6">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O6">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P6">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q6">
-        <v>281.2522003955931</v>
+        <v>286.9999006692373</v>
       </c>
       <c r="R6">
-        <v>281.2522003955931</v>
+        <v>1721.999404015424</v>
       </c>
       <c r="S6">
-        <v>0.001756307898388415</v>
+        <v>0.001195863755623942</v>
       </c>
       <c r="T6">
-        <v>0.001756307898388415</v>
+        <v>0.0008624341137526413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H7">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J7">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N7">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O7">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P7">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q7">
-        <v>88.80208639505047</v>
+        <v>111.851375079493</v>
       </c>
       <c r="R7">
-        <v>88.80208639505047</v>
+        <v>1006.662375715437</v>
       </c>
       <c r="S7">
-        <v>0.0005545336374600018</v>
+        <v>0.0004660594138268356</v>
       </c>
       <c r="T7">
-        <v>0.0005545336374600018</v>
+        <v>0.0005041697295735506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H8">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J8">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N8">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O8">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P8">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q8">
-        <v>288.4579935290772</v>
+        <v>331.4501578234529</v>
       </c>
       <c r="R8">
-        <v>288.4579935290772</v>
+        <v>2983.051420411076</v>
       </c>
       <c r="S8">
-        <v>0.001801305204637719</v>
+        <v>0.00138107793630811</v>
       </c>
       <c r="T8">
-        <v>0.001801305204637719</v>
+        <v>0.001494010568204437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H9">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J9">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N9">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O9">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P9">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q9">
-        <v>285.4501348857121</v>
+        <v>412.6375722884714</v>
       </c>
       <c r="R9">
-        <v>285.4501348857121</v>
+        <v>3713.738150596243</v>
       </c>
       <c r="S9">
-        <v>0.001782522326192155</v>
+        <v>0.001719367552942606</v>
       </c>
       <c r="T9">
-        <v>0.001782522326192155</v>
+        <v>0.001859962589505145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H10">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J10">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N10">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O10">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P10">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q10">
-        <v>647.9453833062217</v>
+        <v>803.3124197852686</v>
       </c>
       <c r="R10">
-        <v>647.9453833062217</v>
+        <v>7229.811778067418</v>
       </c>
       <c r="S10">
-        <v>0.004046160680074301</v>
+        <v>0.003347221392842587</v>
       </c>
       <c r="T10">
-        <v>0.004046160680074301</v>
+        <v>0.003620928264479315</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H11">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J11">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N11">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O11">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P11">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q11">
-        <v>426.6477320974747</v>
+        <v>467.2524845331093</v>
       </c>
       <c r="R11">
-        <v>426.6477320974747</v>
+        <v>2803.514907198656</v>
       </c>
       <c r="S11">
-        <v>0.00266424504646841</v>
+        <v>0.001946935555292599</v>
       </c>
       <c r="T11">
-        <v>0.00266424504646841</v>
+        <v>0.001404092759117201</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H12">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I12">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J12">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N12">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O12">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P12">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q12">
-        <v>4659.935369647177</v>
+        <v>6471.159027642637</v>
       </c>
       <c r="R12">
-        <v>4659.935369647177</v>
+        <v>58240.43124878373</v>
       </c>
       <c r="S12">
-        <v>0.02909943916591351</v>
+        <v>0.02696385789678423</v>
       </c>
       <c r="T12">
-        <v>0.02909943916591351</v>
+        <v>0.02916872943828646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H13">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I13">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J13">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N13">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O13">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P13">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q13">
-        <v>15136.98226327399</v>
+        <v>19176.0421316989</v>
       </c>
       <c r="R13">
-        <v>15136.98226327399</v>
+        <v>172584.37918529</v>
       </c>
       <c r="S13">
-        <v>0.09452442138891802</v>
+        <v>0.07990223588280984</v>
       </c>
       <c r="T13">
-        <v>0.09452442138891802</v>
+        <v>0.08643595100157321</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H14">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I14">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J14">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N14">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O14">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P14">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q14">
-        <v>14979.14332673412</v>
+        <v>23873.13834238815</v>
       </c>
       <c r="R14">
-        <v>14979.14332673412</v>
+        <v>214858.2450814934</v>
       </c>
       <c r="S14">
-        <v>0.0935387801369446</v>
+        <v>0.09947397476475268</v>
       </c>
       <c r="T14">
-        <v>0.0935387801369446</v>
+        <v>0.1076080977422021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H15">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I15">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J15">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N15">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O15">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P15">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q15">
-        <v>34001.26879717716</v>
+        <v>46475.62368917151</v>
       </c>
       <c r="R15">
-        <v>34001.26879717716</v>
+        <v>418280.6132025436</v>
       </c>
       <c r="S15">
-        <v>0.212324372430565</v>
+        <v>0.1936534255248786</v>
       </c>
       <c r="T15">
-        <v>0.212324372430565</v>
+        <v>0.2094887310100463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H16">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I16">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J16">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N16">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O16">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P16">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q16">
-        <v>22388.56020044579</v>
+        <v>27032.88297820172</v>
       </c>
       <c r="R16">
-        <v>22388.56020044579</v>
+        <v>162197.2978692103</v>
       </c>
       <c r="S16">
-        <v>0.1398076354897154</v>
+        <v>0.1126399169068422</v>
       </c>
       <c r="T16">
-        <v>0.1398076354897154</v>
+        <v>0.08123375798778885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H17">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I17">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J17">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N17">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O17">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P17">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q17">
-        <v>3298.610451375727</v>
+        <v>5875.723747653296</v>
       </c>
       <c r="R17">
-        <v>3298.610451375727</v>
+        <v>52881.51372887967</v>
       </c>
       <c r="S17">
-        <v>0.02059850760743965</v>
+        <v>0.02448281358806273</v>
       </c>
       <c r="T17">
-        <v>0.02059850760743965</v>
+        <v>0.0264848067428576</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H18">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I18">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J18">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N18">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O18">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P18">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q18">
-        <v>10714.95716896715</v>
+        <v>17411.58355990345</v>
       </c>
       <c r="R18">
-        <v>10714.95716896715</v>
+        <v>156704.2520391311</v>
       </c>
       <c r="S18">
-        <v>0.06691063707334978</v>
+        <v>0.07255013558803672</v>
       </c>
       <c r="T18">
-        <v>0.06691063707334978</v>
+        <v>0.07848265940946171</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H19">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I19">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J19">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N19">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O19">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P19">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q19">
-        <v>10603.22833060263</v>
+        <v>21676.48257293436</v>
       </c>
       <c r="R19">
-        <v>10603.22833060263</v>
+        <v>195088.3431564093</v>
       </c>
       <c r="S19">
-        <v>0.06621293500729887</v>
+        <v>0.09032100637644837</v>
       </c>
       <c r="T19">
-        <v>0.06621293500729887</v>
+        <v>0.09770667860931619</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H20">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I20">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J20">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N20">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O20">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P20">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q20">
-        <v>24068.34681548295</v>
+        <v>42199.22963273891</v>
       </c>
       <c r="R20">
-        <v>24068.34681548295</v>
+        <v>379793.0666946503</v>
       </c>
       <c r="S20">
-        <v>0.1502972334215619</v>
+        <v>0.1758346574872298</v>
       </c>
       <c r="T20">
-        <v>0.1502972334215619</v>
+        <v>0.1902128979373705</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H21">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I21">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J21">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N21">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O21">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P21">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q21">
-        <v>15848.10363454391</v>
+        <v>24545.48741640414</v>
       </c>
       <c r="R21">
-        <v>15848.10363454391</v>
+        <v>147272.9244984248</v>
       </c>
       <c r="S21">
-        <v>0.09896509093503167</v>
+        <v>0.102275501479111</v>
       </c>
       <c r="T21">
-        <v>0.09896509093503167</v>
+        <v>0.07375913941862261</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H22">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I22">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J22">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N22">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O22">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P22">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q22">
-        <v>79.56687580225224</v>
+        <v>95.929242611568</v>
       </c>
       <c r="R22">
-        <v>79.56687580225224</v>
+        <v>575.5754556694079</v>
       </c>
       <c r="S22">
-        <v>0.0004968634280017363</v>
+        <v>0.000399715484486669</v>
       </c>
       <c r="T22">
-        <v>0.0004968634280017363</v>
+        <v>0.0002882671775904821</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H23">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I23">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J23">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N23">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O23">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P23">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q23">
-        <v>258.4590326311772</v>
+        <v>284.2679634549973</v>
       </c>
       <c r="R23">
-        <v>258.4590326311772</v>
+        <v>1705.607780729984</v>
       </c>
       <c r="S23">
-        <v>0.001613973649918076</v>
+        <v>0.001184480390370046</v>
       </c>
       <c r="T23">
-        <v>0.001613973649918076</v>
+        <v>0.0008542246480186921</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H24">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I24">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J24">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N24">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O24">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P24">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q24">
-        <v>255.7639842959086</v>
+        <v>353.8982847066186</v>
       </c>
       <c r="R24">
-        <v>255.7639842959086</v>
+        <v>2123.389708239712</v>
       </c>
       <c r="S24">
-        <v>0.001597144147176007</v>
+        <v>0.001474614210218406</v>
       </c>
       <c r="T24">
-        <v>0.001597144147176007</v>
+        <v>0.001063463620781133</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H25">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I25">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J25">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N25">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O25">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P25">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q25">
-        <v>580.5605693859279</v>
+        <v>688.9602560156213</v>
       </c>
       <c r="R25">
-        <v>580.5605693859279</v>
+        <v>4133.761536093728</v>
       </c>
       <c r="S25">
-        <v>0.00362536937336387</v>
+        <v>0.002870741757447534</v>
       </c>
       <c r="T25">
-        <v>0.00362536937336387</v>
+        <v>0.002070324158378059</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H26">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I26">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J26">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N26">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O26">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P26">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q26">
-        <v>382.277359566683</v>
+        <v>400.738720626176</v>
       </c>
       <c r="R26">
-        <v>382.277359566683</v>
+        <v>1602.954882504704</v>
       </c>
       <c r="S26">
-        <v>0.002387169753828364</v>
+        <v>0.001669787725899795</v>
       </c>
       <c r="T26">
-        <v>0.002387169753828364</v>
+        <v>0.0008028126898620176</v>
       </c>
     </row>
   </sheetData>
